--- a/book.xlsx
+++ b/book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,27 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Common ID</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Badge ID</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Garages</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Issue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,34 +370,30 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>